--- a/decode.xlsx
+++ b/decode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shirishbahirat/Documents/code/cpu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64180F8D-9F8D-7443-B60E-0A2DC85737AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEF2EA6-4861-7942-877B-553CA45D8F06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1080" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{C9C2F056-BD4C-A24D-B035-667B8B8E16E7}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{C9C2F056-BD4C-A24D-B035-667B8B8E16E7}"/>
   </bookViews>
   <sheets>
     <sheet name="r-type" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Opcode</t>
   </si>
@@ -2640,7 +2640,7 @@
   <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="34" x14ac:dyDescent="0.4"/>
@@ -2994,14 +2994,357 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D424E190-EE9F-BF45-9842-AB66DB5C59C7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="34" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="18" width="3.83203125" style="1" customWidth="1"/>
+    <col min="19" max="21" width="3.83203125" style="2" customWidth="1"/>
+    <col min="22" max="33" width="3.83203125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="31.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="57.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.83203125" style="3"/>
+    <col min="37" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="6"/>
+    </row>
+    <row r="2" spans="1:36" s="3" customFormat="1" ht="37" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="24">
+        <v>31</v>
+      </c>
+      <c r="C2" s="25">
+        <f>B2-1</f>
+        <v>30</v>
+      </c>
+      <c r="D2" s="25">
+        <f t="shared" ref="D2:AG2" si="0">C2-1</f>
+        <v>29</v>
+      </c>
+      <c r="E2" s="25">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F2" s="25">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G2" s="25">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H2" s="25">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I2" s="25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J2" s="25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="K2" s="25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="L2" s="25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="M2" s="26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="N2" s="24">
+        <f>M2-1</f>
+        <v>19</v>
+      </c>
+      <c r="O2" s="25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="P2" s="25">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Q2" s="25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R2" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="S2" s="24">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="T2" s="25">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="U2" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V2" s="24">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="W2" s="25">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="X2" s="25">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Y2" s="25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Z2" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AA2" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AB2" s="25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AC2" s="25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AD2" s="25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AE2" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AF2" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG2" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ2" s="6"/>
+    </row>
+    <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="6"/>
+    </row>
+    <row r="4" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0</v>
+      </c>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ4" s="6"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AG3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/decode.xlsx
+++ b/decode.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shirishbahirat/Documents/code/cpu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEF2EA6-4861-7942-877B-553CA45D8F06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92501BAF-2F12-6D46-B661-8231856FF14A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{C9C2F056-BD4C-A24D-B035-667B8B8E16E7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="4" xr2:uid="{C9C2F056-BD4C-A24D-B035-667B8B8E16E7}"/>
   </bookViews>
   <sheets>
     <sheet name="r-type" sheetId="1" r:id="rId1"/>
     <sheet name="arch" sheetId="2" r:id="rId2"/>
     <sheet name="i-type" sheetId="3" r:id="rId3"/>
     <sheet name="s-type" sheetId="4" r:id="rId4"/>
+    <sheet name="sb-type" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Opcode</t>
   </si>
@@ -138,6 +139,30 @@
   </si>
   <si>
     <t>R[rd] = {M[R[rs1]+imm[31:20]}</t>
+  </si>
+  <si>
+    <t>SW rs2, imm (rs1)</t>
+  </si>
+  <si>
+    <t>imm[4:0]</t>
+  </si>
+  <si>
+    <t>imm[11:5]</t>
+  </si>
+  <si>
+    <t>{M[R[rs1]+imm[31:25, 11:7]} = R[rs2]</t>
+  </si>
+  <si>
+    <t>BEQ rs1, rs2, imm</t>
+  </si>
+  <si>
+    <t>imm[4:1,11]</t>
+  </si>
+  <si>
+    <t>imm[12,10:5]</t>
+  </si>
+  <si>
+    <t>if (R[rs 1] == R[rs 2]) PC = PC + {imm}</t>
   </si>
 </sst>
 </file>
@@ -951,7 +976,7 @@
   <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="34" x14ac:dyDescent="0.4"/>
@@ -2640,7 +2665,7 @@
   <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="34" x14ac:dyDescent="0.4"/>
@@ -2996,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D424E190-EE9F-BF45-9842-AB66DB5C59C7}">
   <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="34" x14ac:dyDescent="0.4"/>
@@ -3007,7 +3032,7 @@
     <col min="19" max="21" width="3.83203125" style="2" customWidth="1"/>
     <col min="22" max="33" width="3.83203125" style="1" customWidth="1"/>
     <col min="34" max="34" width="31.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="57.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="69.5" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10.83203125" style="3"/>
     <col min="37" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -3060,7 +3085,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="25">
-        <f t="shared" ref="D2:AG2" si="0">C2-1</f>
+        <f t="shared" ref="D2:M2" si="0">C2-1</f>
         <v>29</v>
       </c>
       <c r="E2" s="25">
@@ -3075,11 +3100,11 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -3104,79 +3129,79 @@
         <v>19</v>
       </c>
       <c r="O2" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D2:AG2" si="1">N2-1</f>
         <v>18</v>
       </c>
       <c r="P2" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="Q2" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="R2" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="S2" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="T2" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="U2" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="V2" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="W2" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="X2" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="Y2" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="Z2" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AA2" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AB2" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AC2" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AD2" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AE2" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AF2" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AG2" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH2" s="21" t="s">
@@ -3189,20 +3214,22 @@
     </row>
     <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
+      <c r="B3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
       <c r="N3" s="10" t="s">
         <v>3</v>
       </c>
@@ -3215,13 +3242,13 @@
       </c>
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
-      <c r="V3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
+      <c r="V3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
       <c r="AA3" s="20" t="s">
         <v>0</v>
       </c>
@@ -3243,7 +3270,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3272,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="8">
         <v>0</v>
@@ -3290,10 +3317,10 @@
         <v>1</v>
       </c>
       <c r="AH4" s="22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI4" s="22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AJ4" s="6"/>
     </row>
@@ -3336,10 +3363,372 @@
       <c r="AJ5" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="AH2:AH3"/>
     <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668CF114-A468-7E40-B3FE-6D334B3BD280}">
+  <dimension ref="A1:AJ5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="34" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="18" width="3.83203125" style="1" customWidth="1"/>
+    <col min="19" max="21" width="3.83203125" style="2" customWidth="1"/>
+    <col min="22" max="26" width="4.83203125" style="1" customWidth="1"/>
+    <col min="27" max="33" width="3.83203125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="31.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="69.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.83203125" style="3"/>
+    <col min="37" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="6"/>
+    </row>
+    <row r="2" spans="1:36" s="3" customFormat="1" ht="37" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="24">
+        <v>31</v>
+      </c>
+      <c r="C2" s="25">
+        <f>B2-1</f>
+        <v>30</v>
+      </c>
+      <c r="D2" s="25">
+        <f t="shared" ref="D2:M2" si="0">C2-1</f>
+        <v>29</v>
+      </c>
+      <c r="E2" s="25">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F2" s="25">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G2" s="25">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H2" s="26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I2" s="24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J2" s="25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="K2" s="25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="L2" s="25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="M2" s="26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="N2" s="24">
+        <f>M2-1</f>
+        <v>19</v>
+      </c>
+      <c r="O2" s="25">
+        <f t="shared" ref="O2:AR2" si="1">N2-1</f>
+        <v>18</v>
+      </c>
+      <c r="P2" s="25">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="Q2" s="25">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="R2" s="26">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="S2" s="24">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="T2" s="25">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="U2" s="26">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="V2" s="24">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="W2" s="25">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="X2" s="25">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Y2" s="25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Z2" s="26">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA2" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AB2" s="25">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC2" s="25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AD2" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AE2" s="25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AF2" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AG2" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ2" s="6"/>
+    </row>
+    <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="6"/>
+    </row>
+    <row r="4" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="8">
+        <v>0</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0</v>
+      </c>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ4" s="6"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="V3:Z3"/>

--- a/decode.xlsx
+++ b/decode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shirishbahirat/Documents/code/cpu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92501BAF-2F12-6D46-B661-8231856FF14A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E8F3E8-D422-9441-BC1B-F8ECA60313B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="4" xr2:uid="{C9C2F056-BD4C-A24D-B035-667B8B8E16E7}"/>
+    <workbookView xWindow="1080" yWindow="1900" windowWidth="28800" windowHeight="16100" activeTab="4" xr2:uid="{C9C2F056-BD4C-A24D-B035-667B8B8E16E7}"/>
   </bookViews>
   <sheets>
     <sheet name="r-type" sheetId="1" r:id="rId1"/>
@@ -3382,7 +3382,7 @@
   <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="34" x14ac:dyDescent="0.4"/>
